--- a/xls/bachelier.xlsx
+++ b/xls/bachelier.xlsx
@@ -5,20 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\FRE6233\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A2430-AB52-4D60-9132-633B076856B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0424C3B-8960-4E01-BA31-1363C3CCDD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="1980" windowWidth="17280" windowHeight="9372" xr2:uid="{8041CDF5-D8B2-442F-9881-85CA5DF7BFA4}"/>
+    <workbookView xWindow="2355" yWindow="2550" windowWidth="26145" windowHeight="11835" activeTab="1" xr2:uid="{8041CDF5-D8B2-442F-9881-85CA5DF7BFA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Option" sheetId="1" r:id="rId1"/>
+    <sheet name="Ho-Lee" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="f">Sheet1!$C$2</definedName>
-    <definedName name="k">Sheet1!$C$4</definedName>
-    <definedName name="s">Sheet1!$C$3</definedName>
+    <definedName name="D_t">'Ho-Lee'!$C$8</definedName>
+    <definedName name="f">Option!$C$2</definedName>
+    <definedName name="f_t" localSheetId="1">'Ho-Lee'!$C$7</definedName>
+    <definedName name="f_t">Option!$E$3</definedName>
+    <definedName name="k" localSheetId="1">'Ho-Lee'!$C$4</definedName>
+    <definedName name="k">Option!$C$4</definedName>
+    <definedName name="r_">'Ho-Lee'!$C$2</definedName>
+    <definedName name="s">Option!$C$3</definedName>
+    <definedName name="t">'Ho-Lee'!$C$5</definedName>
+    <definedName name="Z" localSheetId="1">'Ho-Lee'!$C$6</definedName>
+    <definedName name="Z">Option!$E$2</definedName>
+    <definedName name="σ">'Ho-Lee'!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>f</t>
   </si>
@@ -73,12 +83,61 @@
   <si>
     <t>k</t>
   </si>
+  <si>
+    <t>Bachelier</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>f_t</t>
+  </si>
+  <si>
+    <t>D_t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>floorlet</t>
+  </si>
+  <si>
+    <t>=holee.floolet(r, sigma, k, t)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +145,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,17 +181,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -144,6 +248,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Put Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -182,6 +311,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Option!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bachelier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -196,7 +336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$49</c:f>
+              <c:f>Option!$B$10:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -328,132 +468,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$49</c:f>
+              <c:f>Option!$C$10:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-1.1059522844649603</c:v>
+                  <c:v>-2.8889399419386379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.74979738231126625</c:v>
+                  <c:v>-2.7229947195318176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.37905336323405825</c:v>
+                  <c:v>-2.5492252555736137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0531048552081579E-3</c:v>
+                  <c:v>-2.3653013014896405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40514183748158494</c:v>
+                  <c:v>-2.1685382043089265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81768147140011083</c:v>
+                  <c:v>-1.9559716769181095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2429961578121915</c:v>
+                  <c:v>-1.7244853427896483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6802767059201393</c:v>
+                  <c:v>-1.4709918181237953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1285961102936222</c:v>
+                  <c:v>-1.1926598745190704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5869292248277014</c:v>
+                  <c:v>-0.88717061892901983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0541761735804287</c:v>
+                  <c:v>-0.55297614223248015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5291889225763966</c:v>
+                  <c:v>-0.18952668161702912</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0108002850498492</c:v>
+                  <c:v>0.20257091874079247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4978545036256863</c:v>
+                  <c:v>0.62149807890609576</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9892384539204899</c:v>
+                  <c:v>1.0642980551468111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4839124511259483</c:v>
+                  <c:v>1.5270880867902143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9809396188578905</c:v>
+                  <c:v>2.0054001425249246</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4795128005370994</c:v>
+                  <c:v>2.494619226960245</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9789780582875922</c:v>
+                  <c:v>2.9904698094289452</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.478853911020428</c:v>
+                  <c:v>3.4894890291437961</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9788456080286538</c:v>
+                  <c:v>3.9894228040143269</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.478853911020428</c:v>
+                  <c:v>4.4894890291437957</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9789780582875913</c:v>
+                  <c:v>4.9904698094289452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4795128005370994</c:v>
+                  <c:v>5.4946192269602445</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9809396188578905</c:v>
+                  <c:v>6.005400142524925</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.483912451125947</c:v>
+                  <c:v>6.5270880867902141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.989238453920489</c:v>
+                  <c:v>7.0642980551468106</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.497854503625685</c:v>
+                  <c:v>7.6214980789060958</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.01080028504985</c:v>
+                  <c:v>8.2025709187407934</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.529188922576395</c:v>
+                  <c:v>8.8104733183829715</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.054176173580428</c:v>
+                  <c:v>9.447023857767519</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.586929224827701</c:v>
+                  <c:v>10.112829381070981</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.128596110293621</c:v>
+                  <c:v>10.80734012548093</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.680276705920139</c:v>
+                  <c:v>11.529008181876206</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.242996157812192</c:v>
+                  <c:v>12.275514657210353</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.81768147140011</c:v>
+                  <c:v>13.044028323081891</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.405141837481587</c:v>
+                  <c:v>13.831461795691075</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.006053104855209</c:v>
+                  <c:v>14.634698698510359</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.620946636765943</c:v>
+                  <c:v>15.450774744426386</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.250202617688736</c:v>
+                  <c:v>16.277005280468181</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.894047715535038</c:v>
+                  <c:v>17.111060058061362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,13 +601,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DB4-4519-8144-69A63AF46426}"/>
+              <c16:uniqueId val="{00000000-AA45-45EA-A18E-3A4C0072EB2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Option!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -482,7 +633,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$49</c:f>
+              <c:f>Option!$B$10:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -614,132 +765,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$49</c:f>
+              <c:f>Option!$D$10:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.1859295132104197</c:v>
+                  <c:v>3.9914343421845189E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3483793897203213</c:v>
+                  <c:v>5.7008934088089269E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5264553117546438</c:v>
+                  <c:v>8.0058534547881699E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7208656123463761</c:v>
+                  <c:v>0.11061799019469776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9322786621094679</c:v>
+                  <c:v>0.15048353300942274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1613180334221447</c:v>
+                  <c:v>0.20168732797265232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4085582084565651</c:v>
+                  <c:v>0.266480974586214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.674520871907351</c:v>
+                  <c:v>0.34730740212793254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9596718169570231</c:v>
+                  <c:v>0.44676133725329414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.264418480986194</c:v>
+                  <c:v>0.56753930674006803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5891081160547955</c:v>
+                  <c:v>0.71238089607367172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9340265884709638</c:v>
+                  <c:v>0.8840036464770229</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.299397792003564</c:v>
+                  <c:v>1.0850344779622993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6853836506168705</c:v>
+                  <c:v>1.3179408286409817</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0920846790995</c:v>
+                  <c:v>1.5849647756893894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.519541063676968</c:v>
+                  <c:v>1.8880632480607282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9677342196494862</c:v>
+                  <c:v>2.2288570738163145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4365887792649872</c:v>
+                  <c:v>2.6085910627585847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.925974960378305</c:v>
+                  <c:v>3.0281066582734937</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.4357112648886741</c:v>
+                  <c:v>3.4878279587501879</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9655674554058038</c:v>
+                  <c:v>3.987761167674492</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5152677589693369</c:v>
+                  <c:v>4.5275068370385512</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0844942478298876</c:v>
+                  <c:v>5.1062836665495652</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.6728903491786582</c:v>
+                  <c:v>5.7229621445706016</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.280064438175387</c:v>
+                  <c:v>6.376105985444056</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.905593471555491</c:v>
+                  <c:v>7.0640191378988391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.549026622392425</c:v>
+                  <c:v>7.7847961044341929</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.209888880147005</c:v>
+                  <c:v>8.5363734057617648</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.887684583857805</c:v>
+                  <c:v>9.3165802243033653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.581900860132315</c:v>
+                  <c:v>10.123186539019301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292010941409885</c:v>
+                  <c:v>10.953947391857241</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.017477343720856</c:v>
+                  <c:v>11.806642276452777</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.757754886804079</c:v>
+                  <c:v>12.679108988059141</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.512293542923089</c:v>
+                  <c:v>13.569271600088314</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.280541104000449</c:v>
+                  <c:v>14.47516252219144</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.061945659744524</c:v>
+                  <c:v>15.394938837716396</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.855957882250252</c:v>
+                  <c:v>16.326893309710854</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.662033115105118</c:v>
+                  <c:v>17.269460583629098</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.479633267313844</c:v>
+                  <c:v>18.221219204170353</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.3082285143729</c:v>
+                  <c:v>19.180890108309015</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22.14729881057815</c:v>
+                  <c:v>20.14733226325697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,7 +898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DB4-4519-8144-69A63AF46426}"/>
+              <c16:uniqueId val="{00000001-AA45-45EA-A18E-3A4C0072EB2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -759,13 +910,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="32132720"/>
-        <c:axId val="32133680"/>
+        <c:axId val="502286607"/>
+        <c:axId val="502280847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32132720"/>
+        <c:axId val="502286607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -783,6 +936,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strike</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -820,12 +1028,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32133680"/>
+        <c:crossAx val="502280847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32133680"/>
+        <c:axId val="502280847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,6 +1053,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -882,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32132720"/>
+        <c:crossAx val="502286607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -894,6 +1157,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1498,29 +1792,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB816577-EEA4-4E7F-879F-7D2940B062BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E94BB2-BDF3-F655-7D57-B718CF267118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1834,593 +2126,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA9F96-8E3F-473A-A308-3D36C05B3714}">
-  <dimension ref="B2:N49"/>
+  <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-1.005481005382161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="N3">
-        <f>0.1*SQRT(0.25)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <f ca="1">f+s*f*Z</f>
+        <v>89.945189946178388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" cm="1">
+        <f t="array" ref="C5">_xll.BACHELIER.PUT.VALUE(f, f*s, k)</f>
+        <v>3.9894228040143269</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">MAX(k-f_t,0)</f>
+        <v>10.054810053821612</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="D6" s="5">
+        <f t="array" aca="1" ref="D6:D7" ca="1">_xll.MONTE.STDEV(D5)</f>
+        <v>3.9576222277568878</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="D7" s="5">
+        <f ca="1"/>
+        <v>5.8391036245572687</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" cm="1">
-        <f t="array" ref="B9:B49">_xll.ARRAY.SEQUENCE(C6,C7,C8)</f>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" cm="1">
+        <f t="array" ref="B10:B50">_xll.ARRAY.SEQUENCE(B6,B7,B8)</f>
         <v>80</v>
       </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">_xll.BACHELIER.PUT.VALUE(f, f*s, B9)</f>
-        <v>-1.1059522844649603</v>
-      </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">_xll.BLACK.PUT.VALUE(f, s, B9)</f>
-        <v>1.1859295132104197</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="C10" s="3" cm="1">
+        <f t="array" ref="C10">_xll.BACHELIER.PUT.VALUE(f, f*s, B10)</f>
+        <v>-2.8889399419386379</v>
+      </c>
+      <c r="D10" s="3" cm="1">
+        <f t="array" ref="D10">_xll.BLACK.PUT.VALUE(f, s, B10)</f>
+        <v>3.9914343421845189E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>81</v>
       </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">_xll.BACHELIER.PUT.VALUE(f, f*s, B10)</f>
-        <v>-0.74979738231126625</v>
-      </c>
-      <c r="D10" cm="1">
-        <f t="array" ref="D10">_xll.BLACK.PUT.VALUE(f, s, B10)</f>
-        <v>1.3483793897203213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="C11" s="3" cm="1">
+        <f t="array" ref="C11">_xll.BACHELIER.PUT.VALUE(f, f*s, B11)</f>
+        <v>-2.7229947195318176</v>
+      </c>
+      <c r="D11" s="3" cm="1">
+        <f t="array" ref="D11">_xll.BLACK.PUT.VALUE(f, s, B11)</f>
+        <v>5.7008934088089269E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
         <v>82</v>
       </c>
-      <c r="C11" cm="1">
-        <f t="array" ref="C11">_xll.BACHELIER.PUT.VALUE(f, f*s, B11)</f>
-        <v>-0.37905336323405825</v>
-      </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">_xll.BLACK.PUT.VALUE(f, s, B11)</f>
-        <v>1.5264553117546438</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="C12" s="3" cm="1">
+        <f t="array" ref="C12">_xll.BACHELIER.PUT.VALUE(f, f*s, B12)</f>
+        <v>-2.5492252555736137</v>
+      </c>
+      <c r="D12" s="3" cm="1">
+        <f t="array" ref="D12">_xll.BLACK.PUT.VALUE(f, s, B12)</f>
+        <v>8.0058534547881699E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
         <v>83</v>
       </c>
-      <c r="C12" cm="1">
-        <f t="array" ref="C12">_xll.BACHELIER.PUT.VALUE(f, f*s, B12)</f>
-        <v>6.0531048552081579E-3</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">_xll.BLACK.PUT.VALUE(f, s, B12)</f>
-        <v>1.7208656123463761</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="C13" s="3" cm="1">
+        <f t="array" ref="C13">_xll.BACHELIER.PUT.VALUE(f, f*s, B13)</f>
+        <v>-2.3653013014896405</v>
+      </c>
+      <c r="D13" s="3" cm="1">
+        <f t="array" ref="D13">_xll.BLACK.PUT.VALUE(f, s, B13)</f>
+        <v>0.11061799019469776</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
         <v>84</v>
       </c>
-      <c r="C13" cm="1">
-        <f t="array" ref="C13">_xll.BACHELIER.PUT.VALUE(f, f*s, B13)</f>
-        <v>0.40514183748158494</v>
-      </c>
-      <c r="D13" cm="1">
-        <f t="array" ref="D13">_xll.BLACK.PUT.VALUE(f, s, B13)</f>
-        <v>1.9322786621094679</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="C14" s="3" cm="1">
+        <f t="array" ref="C14">_xll.BACHELIER.PUT.VALUE(f, f*s, B14)</f>
+        <v>-2.1685382043089265</v>
+      </c>
+      <c r="D14" s="3" cm="1">
+        <f t="array" ref="D14">_xll.BLACK.PUT.VALUE(f, s, B14)</f>
+        <v>0.15048353300942274</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
         <v>85</v>
       </c>
-      <c r="C14" cm="1">
-        <f t="array" ref="C14">_xll.BACHELIER.PUT.VALUE(f, f*s, B14)</f>
-        <v>0.81768147140011083</v>
-      </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">_xll.BLACK.PUT.VALUE(f, s, B14)</f>
-        <v>2.1613180334221447</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="C15" s="3" cm="1">
+        <f t="array" ref="C15">_xll.BACHELIER.PUT.VALUE(f, f*s, B15)</f>
+        <v>-1.9559716769181095</v>
+      </c>
+      <c r="D15" s="3" cm="1">
+        <f t="array" ref="D15">_xll.BLACK.PUT.VALUE(f, s, B15)</f>
+        <v>0.20168732797265232</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
         <v>86</v>
       </c>
-      <c r="C15" cm="1">
-        <f t="array" ref="C15">_xll.BACHELIER.PUT.VALUE(f, f*s, B15)</f>
-        <v>1.2429961578121915</v>
-      </c>
-      <c r="D15" cm="1">
-        <f t="array" ref="D15">_xll.BLACK.PUT.VALUE(f, s, B15)</f>
-        <v>2.4085582084565651</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16">
+      <c r="C16" s="3" cm="1">
+        <f t="array" ref="C16">_xll.BACHELIER.PUT.VALUE(f, f*s, B16)</f>
+        <v>-1.7244853427896483</v>
+      </c>
+      <c r="D16" s="3" cm="1">
+        <f t="array" ref="D16">_xll.BLACK.PUT.VALUE(f, s, B16)</f>
+        <v>0.266480974586214</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
         <v>87</v>
       </c>
-      <c r="C16" cm="1">
-        <f t="array" ref="C16">_xll.BACHELIER.PUT.VALUE(f, f*s, B16)</f>
-        <v>1.6802767059201393</v>
-      </c>
-      <c r="D16" cm="1">
-        <f t="array" ref="D16">_xll.BLACK.PUT.VALUE(f, s, B16)</f>
-        <v>2.674520871907351</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="C17" s="3" cm="1">
+        <f t="array" ref="C17">_xll.BACHELIER.PUT.VALUE(f, f*s, B17)</f>
+        <v>-1.4709918181237953</v>
+      </c>
+      <c r="D17" s="3" cm="1">
+        <f t="array" ref="D17">_xll.BLACK.PUT.VALUE(f, s, B17)</f>
+        <v>0.34730740212793254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
         <v>88</v>
       </c>
-      <c r="C17" cm="1">
-        <f t="array" ref="C17">_xll.BACHELIER.PUT.VALUE(f, f*s, B17)</f>
-        <v>2.1285961102936222</v>
-      </c>
-      <c r="D17" cm="1">
-        <f t="array" ref="D17">_xll.BLACK.PUT.VALUE(f, s, B17)</f>
-        <v>2.9596718169570231</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="C18" s="3" cm="1">
+        <f t="array" ref="C18">_xll.BACHELIER.PUT.VALUE(f, f*s, B18)</f>
+        <v>-1.1926598745190704</v>
+      </c>
+      <c r="D18" s="3" cm="1">
+        <f t="array" ref="D18">_xll.BLACK.PUT.VALUE(f, s, B18)</f>
+        <v>0.44676133725329414</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
         <v>89</v>
       </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">_xll.BACHELIER.PUT.VALUE(f, f*s, B18)</f>
-        <v>2.5869292248277014</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">_xll.BLACK.PUT.VALUE(f, s, B18)</f>
-        <v>3.264418480986194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19">
+      <c r="C19" s="3" cm="1">
+        <f t="array" ref="C19">_xll.BACHELIER.PUT.VALUE(f, f*s, B19)</f>
+        <v>-0.88717061892901983</v>
+      </c>
+      <c r="D19" s="3" cm="1">
+        <f t="array" ref="D19">_xll.BLACK.PUT.VALUE(f, s, B19)</f>
+        <v>0.56753930674006803</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
         <v>90</v>
       </c>
-      <c r="C19" cm="1">
-        <f t="array" ref="C19">_xll.BACHELIER.PUT.VALUE(f, f*s, B19)</f>
-        <v>3.0541761735804287</v>
-      </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19">_xll.BLACK.PUT.VALUE(f, s, B19)</f>
-        <v>3.5891081160547955</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="C20" s="3" cm="1">
+        <f t="array" ref="C20">_xll.BACHELIER.PUT.VALUE(f, f*s, B20)</f>
+        <v>-0.55297614223248015</v>
+      </c>
+      <c r="D20" s="3" cm="1">
+        <f t="array" ref="D20">_xll.BLACK.PUT.VALUE(f, s, B20)</f>
+        <v>0.71238089607367172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
         <v>91</v>
       </c>
-      <c r="C20" cm="1">
-        <f t="array" ref="C20">_xll.BACHELIER.PUT.VALUE(f, f*s, B20)</f>
-        <v>3.5291889225763966</v>
-      </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20">_xll.BLACK.PUT.VALUE(f, s, B20)</f>
-        <v>3.9340265884709638</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="C21" s="3" cm="1">
+        <f t="array" ref="C21">_xll.BACHELIER.PUT.VALUE(f, f*s, B21)</f>
+        <v>-0.18952668161702912</v>
+      </c>
+      <c r="D21" s="3" cm="1">
+        <f t="array" ref="D21">_xll.BLACK.PUT.VALUE(f, s, B21)</f>
+        <v>0.8840036464770229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
         <v>92</v>
       </c>
-      <c r="C21" cm="1">
-        <f t="array" ref="C21">_xll.BACHELIER.PUT.VALUE(f, f*s, B21)</f>
-        <v>4.0108002850498492</v>
-      </c>
-      <c r="D21" cm="1">
-        <f t="array" ref="D21">_xll.BLACK.PUT.VALUE(f, s, B21)</f>
-        <v>4.299397792003564</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="C22" s="3" cm="1">
+        <f t="array" ref="C22">_xll.BACHELIER.PUT.VALUE(f, f*s, B22)</f>
+        <v>0.20257091874079247</v>
+      </c>
+      <c r="D22" s="3" cm="1">
+        <f t="array" ref="D22">_xll.BLACK.PUT.VALUE(f, s, B22)</f>
+        <v>1.0850344779622993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
         <v>93</v>
       </c>
-      <c r="C22" cm="1">
-        <f t="array" ref="C22">_xll.BACHELIER.PUT.VALUE(f, f*s, B22)</f>
-        <v>4.4978545036256863</v>
-      </c>
-      <c r="D22" cm="1">
-        <f t="array" ref="D22">_xll.BLACK.PUT.VALUE(f, s, B22)</f>
-        <v>4.6853836506168705</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23">
+      <c r="C23" s="3" cm="1">
+        <f t="array" ref="C23">_xll.BACHELIER.PUT.VALUE(f, f*s, B23)</f>
+        <v>0.62149807890609576</v>
+      </c>
+      <c r="D23" s="3" cm="1">
+        <f t="array" ref="D23">_xll.BLACK.PUT.VALUE(f, s, B23)</f>
+        <v>1.3179408286409817</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
         <v>94</v>
       </c>
-      <c r="C23" cm="1">
-        <f t="array" ref="C23">_xll.BACHELIER.PUT.VALUE(f, f*s, B23)</f>
-        <v>4.9892384539204899</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23">_xll.BLACK.PUT.VALUE(f, s, B23)</f>
-        <v>5.0920846790995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="C24" s="3" cm="1">
+        <f t="array" ref="C24">_xll.BACHELIER.PUT.VALUE(f, f*s, B24)</f>
+        <v>1.0642980551468111</v>
+      </c>
+      <c r="D24" s="3" cm="1">
+        <f t="array" ref="D24">_xll.BLACK.PUT.VALUE(f, s, B24)</f>
+        <v>1.5849647756893894</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
         <v>95</v>
       </c>
-      <c r="C24" cm="1">
-        <f t="array" ref="C24">_xll.BACHELIER.PUT.VALUE(f, f*s, B24)</f>
-        <v>5.4839124511259483</v>
-      </c>
-      <c r="D24" cm="1">
-        <f t="array" ref="D24">_xll.BLACK.PUT.VALUE(f, s, B24)</f>
-        <v>5.519541063676968</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="C25" s="3" cm="1">
+        <f t="array" ref="C25">_xll.BACHELIER.PUT.VALUE(f, f*s, B25)</f>
+        <v>1.5270880867902143</v>
+      </c>
+      <c r="D25" s="3" cm="1">
+        <f t="array" ref="D25">_xll.BLACK.PUT.VALUE(f, s, B25)</f>
+        <v>1.8880632480607282</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
         <v>96</v>
       </c>
-      <c r="C25" cm="1">
-        <f t="array" ref="C25">_xll.BACHELIER.PUT.VALUE(f, f*s, B25)</f>
-        <v>5.9809396188578905</v>
-      </c>
-      <c r="D25" cm="1">
-        <f t="array" ref="D25">_xll.BLACK.PUT.VALUE(f, s, B25)</f>
-        <v>5.9677342196494862</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26">
+      <c r="C26" s="3" cm="1">
+        <f t="array" ref="C26">_xll.BACHELIER.PUT.VALUE(f, f*s, B26)</f>
+        <v>2.0054001425249246</v>
+      </c>
+      <c r="D26" s="3" cm="1">
+        <f t="array" ref="D26">_xll.BLACK.PUT.VALUE(f, s, B26)</f>
+        <v>2.2288570738163145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
         <v>97</v>
       </c>
-      <c r="C26" cm="1">
-        <f t="array" ref="C26">_xll.BACHELIER.PUT.VALUE(f, f*s, B26)</f>
-        <v>6.4795128005370994</v>
-      </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">_xll.BLACK.PUT.VALUE(f, s, B26)</f>
-        <v>6.4365887792649872</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="C27" s="3" cm="1">
+        <f t="array" ref="C27">_xll.BACHELIER.PUT.VALUE(f, f*s, B27)</f>
+        <v>2.494619226960245</v>
+      </c>
+      <c r="D27" s="3" cm="1">
+        <f t="array" ref="D27">_xll.BLACK.PUT.VALUE(f, s, B27)</f>
+        <v>2.6085910627585847</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
         <v>98</v>
       </c>
-      <c r="C27" cm="1">
-        <f t="array" ref="C27">_xll.BACHELIER.PUT.VALUE(f, f*s, B27)</f>
-        <v>6.9789780582875922</v>
-      </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">_xll.BLACK.PUT.VALUE(f, s, B27)</f>
-        <v>6.925974960378305</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28">
+      <c r="C28" s="3" cm="1">
+        <f t="array" ref="C28">_xll.BACHELIER.PUT.VALUE(f, f*s, B28)</f>
+        <v>2.9904698094289452</v>
+      </c>
+      <c r="D28" s="3" cm="1">
+        <f t="array" ref="D28">_xll.BLACK.PUT.VALUE(f, s, B28)</f>
+        <v>3.0281066582734937</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
         <v>99</v>
       </c>
-      <c r="C28" cm="1">
-        <f t="array" ref="C28">_xll.BACHELIER.PUT.VALUE(f, f*s, B28)</f>
-        <v>7.478853911020428</v>
-      </c>
-      <c r="D28" cm="1">
-        <f t="array" ref="D28">_xll.BLACK.PUT.VALUE(f, s, B28)</f>
-        <v>7.4357112648886741</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="C29" s="3" cm="1">
+        <f t="array" ref="C29">_xll.BACHELIER.PUT.VALUE(f, f*s, B29)</f>
+        <v>3.4894890291437961</v>
+      </c>
+      <c r="D29" s="3" cm="1">
+        <f t="array" ref="D29">_xll.BLACK.PUT.VALUE(f, s, B29)</f>
+        <v>3.4878279587501879</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
         <v>100</v>
       </c>
-      <c r="C29" cm="1">
-        <f t="array" ref="C29">_xll.BACHELIER.PUT.VALUE(f, f*s, B29)</f>
-        <v>7.9788456080286538</v>
-      </c>
-      <c r="D29" cm="1">
-        <f t="array" ref="D29">_xll.BLACK.PUT.VALUE(f, s, B29)</f>
-        <v>7.9655674554058038</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30">
+      <c r="C30" s="3" cm="1">
+        <f t="array" ref="C30">_xll.BACHELIER.PUT.VALUE(f, f*s, B30)</f>
+        <v>3.9894228040143269</v>
+      </c>
+      <c r="D30" s="3" cm="1">
+        <f t="array" ref="D30">_xll.BLACK.PUT.VALUE(f, s, B30)</f>
+        <v>3.987761167674492</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
         <v>101</v>
       </c>
-      <c r="C30" cm="1">
-        <f t="array" ref="C30">_xll.BACHELIER.PUT.VALUE(f, f*s, B30)</f>
-        <v>8.478853911020428</v>
-      </c>
-      <c r="D30" cm="1">
-        <f t="array" ref="D30">_xll.BLACK.PUT.VALUE(f, s, B30)</f>
-        <v>8.5152677589693369</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31">
+      <c r="C31" s="3" cm="1">
+        <f t="array" ref="C31">_xll.BACHELIER.PUT.VALUE(f, f*s, B31)</f>
+        <v>4.4894890291437957</v>
+      </c>
+      <c r="D31" s="3" cm="1">
+        <f t="array" ref="D31">_xll.BLACK.PUT.VALUE(f, s, B31)</f>
+        <v>4.5275068370385512</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
         <v>102</v>
       </c>
-      <c r="C31" cm="1">
-        <f t="array" ref="C31">_xll.BACHELIER.PUT.VALUE(f, f*s, B31)</f>
-        <v>8.9789780582875913</v>
-      </c>
-      <c r="D31" cm="1">
-        <f t="array" ref="D31">_xll.BLACK.PUT.VALUE(f, s, B31)</f>
-        <v>9.0844942478298876</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32">
+      <c r="C32" s="3" cm="1">
+        <f t="array" ref="C32">_xll.BACHELIER.PUT.VALUE(f, f*s, B32)</f>
+        <v>4.9904698094289452</v>
+      </c>
+      <c r="D32" s="3" cm="1">
+        <f t="array" ref="D32">_xll.BLACK.PUT.VALUE(f, s, B32)</f>
+        <v>5.1062836665495652</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
         <v>103</v>
       </c>
-      <c r="C32" cm="1">
-        <f t="array" ref="C32">_xll.BACHELIER.PUT.VALUE(f, f*s, B32)</f>
-        <v>9.4795128005370994</v>
-      </c>
-      <c r="D32" cm="1">
-        <f t="array" ref="D32">_xll.BLACK.PUT.VALUE(f, s, B32)</f>
-        <v>9.6728903491786582</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
+      <c r="C33" s="3" cm="1">
+        <f t="array" ref="C33">_xll.BACHELIER.PUT.VALUE(f, f*s, B33)</f>
+        <v>5.4946192269602445</v>
+      </c>
+      <c r="D33" s="3" cm="1">
+        <f t="array" ref="D33">_xll.BLACK.PUT.VALUE(f, s, B33)</f>
+        <v>5.7229621445706016</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
         <v>104</v>
       </c>
-      <c r="C33" cm="1">
-        <f t="array" ref="C33">_xll.BACHELIER.PUT.VALUE(f, f*s, B33)</f>
-        <v>9.9809396188578905</v>
-      </c>
-      <c r="D33" cm="1">
-        <f t="array" ref="D33">_xll.BLACK.PUT.VALUE(f, s, B33)</f>
-        <v>10.280064438175387</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34">
+      <c r="C34" s="3" cm="1">
+        <f t="array" ref="C34">_xll.BACHELIER.PUT.VALUE(f, f*s, B34)</f>
+        <v>6.005400142524925</v>
+      </c>
+      <c r="D34" s="3" cm="1">
+        <f t="array" ref="D34">_xll.BLACK.PUT.VALUE(f, s, B34)</f>
+        <v>6.376105985444056</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
         <v>105</v>
       </c>
-      <c r="C34" cm="1">
-        <f t="array" ref="C34">_xll.BACHELIER.PUT.VALUE(f, f*s, B34)</f>
-        <v>10.483912451125947</v>
-      </c>
-      <c r="D34" cm="1">
-        <f t="array" ref="D34">_xll.BLACK.PUT.VALUE(f, s, B34)</f>
-        <v>10.905593471555491</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35">
+      <c r="C35" s="3" cm="1">
+        <f t="array" ref="C35">_xll.BACHELIER.PUT.VALUE(f, f*s, B35)</f>
+        <v>6.5270880867902141</v>
+      </c>
+      <c r="D35" s="3" cm="1">
+        <f t="array" ref="D35">_xll.BLACK.PUT.VALUE(f, s, B35)</f>
+        <v>7.0640191378988391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
         <v>106</v>
       </c>
-      <c r="C35" cm="1">
-        <f t="array" ref="C35">_xll.BACHELIER.PUT.VALUE(f, f*s, B35)</f>
-        <v>10.989238453920489</v>
-      </c>
-      <c r="D35" cm="1">
-        <f t="array" ref="D35">_xll.BLACK.PUT.VALUE(f, s, B35)</f>
-        <v>11.549026622392425</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36">
+      <c r="C36" s="3" cm="1">
+        <f t="array" ref="C36">_xll.BACHELIER.PUT.VALUE(f, f*s, B36)</f>
+        <v>7.0642980551468106</v>
+      </c>
+      <c r="D36" s="3" cm="1">
+        <f t="array" ref="D36">_xll.BLACK.PUT.VALUE(f, s, B36)</f>
+        <v>7.7847961044341929</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
         <v>107</v>
       </c>
-      <c r="C36" cm="1">
-        <f t="array" ref="C36">_xll.BACHELIER.PUT.VALUE(f, f*s, B36)</f>
-        <v>11.497854503625685</v>
-      </c>
-      <c r="D36" cm="1">
-        <f t="array" ref="D36">_xll.BLACK.PUT.VALUE(f, s, B36)</f>
-        <v>12.209888880147005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37">
+      <c r="C37" s="3" cm="1">
+        <f t="array" ref="C37">_xll.BACHELIER.PUT.VALUE(f, f*s, B37)</f>
+        <v>7.6214980789060958</v>
+      </c>
+      <c r="D37" s="3" cm="1">
+        <f t="array" ref="D37">_xll.BLACK.PUT.VALUE(f, s, B37)</f>
+        <v>8.5363734057617648</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
         <v>108</v>
       </c>
-      <c r="C37" cm="1">
-        <f t="array" ref="C37">_xll.BACHELIER.PUT.VALUE(f, f*s, B37)</f>
-        <v>12.01080028504985</v>
-      </c>
-      <c r="D37" cm="1">
-        <f t="array" ref="D37">_xll.BLACK.PUT.VALUE(f, s, B37)</f>
-        <v>12.887684583857805</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38">
+      <c r="C38" s="3" cm="1">
+        <f t="array" ref="C38">_xll.BACHELIER.PUT.VALUE(f, f*s, B38)</f>
+        <v>8.2025709187407934</v>
+      </c>
+      <c r="D38" s="3" cm="1">
+        <f t="array" ref="D38">_xll.BLACK.PUT.VALUE(f, s, B38)</f>
+        <v>9.3165802243033653</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
         <v>109</v>
       </c>
-      <c r="C38" cm="1">
-        <f t="array" ref="C38">_xll.BACHELIER.PUT.VALUE(f, f*s, B38)</f>
-        <v>12.529188922576395</v>
-      </c>
-      <c r="D38" cm="1">
-        <f t="array" ref="D38">_xll.BLACK.PUT.VALUE(f, s, B38)</f>
-        <v>13.581900860132315</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39">
+      <c r="C39" s="3" cm="1">
+        <f t="array" ref="C39">_xll.BACHELIER.PUT.VALUE(f, f*s, B39)</f>
+        <v>8.8104733183829715</v>
+      </c>
+      <c r="D39" s="3" cm="1">
+        <f t="array" ref="D39">_xll.BLACK.PUT.VALUE(f, s, B39)</f>
+        <v>10.123186539019301</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
         <v>110</v>
       </c>
-      <c r="C39" cm="1">
-        <f t="array" ref="C39">_xll.BACHELIER.PUT.VALUE(f, f*s, B39)</f>
-        <v>13.054176173580428</v>
-      </c>
-      <c r="D39" cm="1">
-        <f t="array" ref="D39">_xll.BLACK.PUT.VALUE(f, s, B39)</f>
-        <v>14.292010941409885</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40">
+      <c r="C40" s="3" cm="1">
+        <f t="array" ref="C40">_xll.BACHELIER.PUT.VALUE(f, f*s, B40)</f>
+        <v>9.447023857767519</v>
+      </c>
+      <c r="D40" s="3" cm="1">
+        <f t="array" ref="D40">_xll.BLACK.PUT.VALUE(f, s, B40)</f>
+        <v>10.953947391857241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
         <v>111</v>
       </c>
-      <c r="C40" cm="1">
-        <f t="array" ref="C40">_xll.BACHELIER.PUT.VALUE(f, f*s, B40)</f>
-        <v>13.586929224827701</v>
-      </c>
-      <c r="D40" cm="1">
-        <f t="array" ref="D40">_xll.BLACK.PUT.VALUE(f, s, B40)</f>
-        <v>15.017477343720856</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41">
+      <c r="C41" s="3" cm="1">
+        <f t="array" ref="C41">_xll.BACHELIER.PUT.VALUE(f, f*s, B41)</f>
+        <v>10.112829381070981</v>
+      </c>
+      <c r="D41" s="3" cm="1">
+        <f t="array" ref="D41">_xll.BLACK.PUT.VALUE(f, s, B41)</f>
+        <v>11.806642276452777</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
         <v>112</v>
       </c>
-      <c r="C41" cm="1">
-        <f t="array" ref="C41">_xll.BACHELIER.PUT.VALUE(f, f*s, B41)</f>
-        <v>14.128596110293621</v>
-      </c>
-      <c r="D41" cm="1">
-        <f t="array" ref="D41">_xll.BLACK.PUT.VALUE(f, s, B41)</f>
-        <v>15.757754886804079</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42">
+      <c r="C42" s="3" cm="1">
+        <f t="array" ref="C42">_xll.BACHELIER.PUT.VALUE(f, f*s, B42)</f>
+        <v>10.80734012548093</v>
+      </c>
+      <c r="D42" s="3" cm="1">
+        <f t="array" ref="D42">_xll.BLACK.PUT.VALUE(f, s, B42)</f>
+        <v>12.679108988059141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
         <v>113</v>
       </c>
-      <c r="C42" cm="1">
-        <f t="array" ref="C42">_xll.BACHELIER.PUT.VALUE(f, f*s, B42)</f>
-        <v>14.680276705920139</v>
-      </c>
-      <c r="D42" cm="1">
-        <f t="array" ref="D42">_xll.BLACK.PUT.VALUE(f, s, B42)</f>
-        <v>16.512293542923089</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43">
+      <c r="C43" s="3" cm="1">
+        <f t="array" ref="C43">_xll.BACHELIER.PUT.VALUE(f, f*s, B43)</f>
+        <v>11.529008181876206</v>
+      </c>
+      <c r="D43" s="3" cm="1">
+        <f t="array" ref="D43">_xll.BLACK.PUT.VALUE(f, s, B43)</f>
+        <v>13.569271600088314</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
         <v>114</v>
       </c>
-      <c r="C43" cm="1">
-        <f t="array" ref="C43">_xll.BACHELIER.PUT.VALUE(f, f*s, B43)</f>
-        <v>15.242996157812192</v>
-      </c>
-      <c r="D43" cm="1">
-        <f t="array" ref="D43">_xll.BLACK.PUT.VALUE(f, s, B43)</f>
-        <v>17.280541104000449</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44">
+      <c r="C44" s="3" cm="1">
+        <f t="array" ref="C44">_xll.BACHELIER.PUT.VALUE(f, f*s, B44)</f>
+        <v>12.275514657210353</v>
+      </c>
+      <c r="D44" s="3" cm="1">
+        <f t="array" ref="D44">_xll.BLACK.PUT.VALUE(f, s, B44)</f>
+        <v>14.47516252219144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
         <v>115</v>
       </c>
-      <c r="C44" cm="1">
-        <f t="array" ref="C44">_xll.BACHELIER.PUT.VALUE(f, f*s, B44)</f>
-        <v>15.81768147140011</v>
-      </c>
-      <c r="D44" cm="1">
-        <f t="array" ref="D44">_xll.BLACK.PUT.VALUE(f, s, B44)</f>
-        <v>18.061945659744524</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45">
+      <c r="C45" s="3" cm="1">
+        <f t="array" ref="C45">_xll.BACHELIER.PUT.VALUE(f, f*s, B45)</f>
+        <v>13.044028323081891</v>
+      </c>
+      <c r="D45" s="3" cm="1">
+        <f t="array" ref="D45">_xll.BLACK.PUT.VALUE(f, s, B45)</f>
+        <v>15.394938837716396</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
         <v>116</v>
       </c>
-      <c r="C45" cm="1">
-        <f t="array" ref="C45">_xll.BACHELIER.PUT.VALUE(f, f*s, B45)</f>
-        <v>16.405141837481587</v>
-      </c>
-      <c r="D45" cm="1">
-        <f t="array" ref="D45">_xll.BLACK.PUT.VALUE(f, s, B45)</f>
-        <v>18.855957882250252</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46">
+      <c r="C46" s="3" cm="1">
+        <f t="array" ref="C46">_xll.BACHELIER.PUT.VALUE(f, f*s, B46)</f>
+        <v>13.831461795691075</v>
+      </c>
+      <c r="D46" s="3" cm="1">
+        <f t="array" ref="D46">_xll.BLACK.PUT.VALUE(f, s, B46)</f>
+        <v>16.326893309710854</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
         <v>117</v>
       </c>
-      <c r="C46" cm="1">
-        <f t="array" ref="C46">_xll.BACHELIER.PUT.VALUE(f, f*s, B46)</f>
-        <v>17.006053104855209</v>
-      </c>
-      <c r="D46" cm="1">
-        <f t="array" ref="D46">_xll.BLACK.PUT.VALUE(f, s, B46)</f>
-        <v>19.662033115105118</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47">
+      <c r="C47" s="3" cm="1">
+        <f t="array" ref="C47">_xll.BACHELIER.PUT.VALUE(f, f*s, B47)</f>
+        <v>14.634698698510359</v>
+      </c>
+      <c r="D47" s="3" cm="1">
+        <f t="array" ref="D47">_xll.BLACK.PUT.VALUE(f, s, B47)</f>
+        <v>17.269460583629098</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="3">
         <v>118</v>
       </c>
-      <c r="C47" cm="1">
-        <f t="array" ref="C47">_xll.BACHELIER.PUT.VALUE(f, f*s, B47)</f>
-        <v>17.620946636765943</v>
-      </c>
-      <c r="D47" cm="1">
-        <f t="array" ref="D47">_xll.BLACK.PUT.VALUE(f, s, B47)</f>
-        <v>20.479633267313844</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48">
+      <c r="C48" s="3" cm="1">
+        <f t="array" ref="C48">_xll.BACHELIER.PUT.VALUE(f, f*s, B48)</f>
+        <v>15.450774744426386</v>
+      </c>
+      <c r="D48" s="3" cm="1">
+        <f t="array" ref="D48">_xll.BLACK.PUT.VALUE(f, s, B48)</f>
+        <v>18.221219204170353</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
         <v>119</v>
       </c>
-      <c r="C48" cm="1">
-        <f t="array" ref="C48">_xll.BACHELIER.PUT.VALUE(f, f*s, B48)</f>
-        <v>18.250202617688736</v>
-      </c>
-      <c r="D48" cm="1">
-        <f t="array" ref="D48">_xll.BLACK.PUT.VALUE(f, s, B48)</f>
-        <v>21.3082285143729</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49">
+      <c r="C49" s="3" cm="1">
+        <f t="array" ref="C49">_xll.BACHELIER.PUT.VALUE(f, f*s, B49)</f>
+        <v>16.277005280468181</v>
+      </c>
+      <c r="D49" s="3" cm="1">
+        <f t="array" ref="D49">_xll.BLACK.PUT.VALUE(f, s, B49)</f>
+        <v>19.180890108309015</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
         <v>120</v>
       </c>
-      <c r="C49" cm="1">
-        <f t="array" ref="C49">_xll.BACHELIER.PUT.VALUE(f, f*s, B49)</f>
-        <v>18.894047715535038</v>
-      </c>
-      <c r="D49" cm="1">
-        <f t="array" ref="D49">_xll.BLACK.PUT.VALUE(f, s, B49)</f>
-        <v>22.14729881057815</v>
+      <c r="C50" s="3" cm="1">
+        <f t="array" ref="C50">_xll.BACHELIER.PUT.VALUE(f, f*s, B50)</f>
+        <v>17.111060058061362</v>
+      </c>
+      <c r="D50" s="3" cm="1">
+        <f t="array" ref="D50">_xll.BLACK.PUT.VALUE(f, s, B50)</f>
+        <v>20.14733226325697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC98BBB-8F67-4D04-BCAB-A5D2744D0E2B}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>1.5572453352715516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">r_+σ*SQRT(t)*Z</f>
+        <v>4.5572453352715515E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
+        <f ca="1">EXP(-r_ - s*Z)</f>
+        <v>0.83050233902484949</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <f ca="1">MAX(k - f_t, 0)*D_t</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="array" aca="1" ref="C11:C12" ca="1">_xll.MONTE.STDEV(C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/bachelier.xlsx
+++ b/xls/bachelier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\foo\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0424C3B-8960-4E01-BA31-1363C3CCDD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5B913-6857-4CA1-820B-65082B9E7C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="2550" windowWidth="26145" windowHeight="11835" activeTab="1" xr2:uid="{8041CDF5-D8B2-442F-9881-85CA5DF7BFA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="1" xr2:uid="{8041CDF5-D8B2-442F-9881-85CA5DF7BFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>f</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>floorlet</t>
-  </si>
-  <si>
-    <t>=holee.floolet(r, sigma, k, t)</t>
   </si>
 </sst>
 </file>
@@ -2126,20 +2123,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA9F96-8E3F-473A-A308-3D36C05B3714}">
-  <dimension ref="B2:E50"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2151,10 +2150,10 @@
       </c>
       <c r="E2" s="3">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-1.005481005382161</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.62677852446684501</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2166,10 +2165,10 @@
       </c>
       <c r="E3" s="4">
         <f ca="1">f+s*f*Z</f>
-        <v>89.945189946178388</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>106.26778524466845</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2177,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2188,42 +2187,54 @@
       </c>
       <c r="D5" s="5">
         <f ca="1">MAX(k-f_t,0)</f>
-        <v>10.054810053821612</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>80</v>
       </c>
       <c r="D6" s="5">
         <f t="array" aca="1" ref="D6:D7" ca="1">_xll.MONTE.STDEV(D5)</f>
-        <v>3.9576222277568878</v>
+        <v>3.998525550050898</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <f ca="1">C5-F7</f>
+        <v>3.9647612144837079</v>
+      </c>
+      <c r="G6" s="3">
+        <f ca="1">C5+F7</f>
+        <v>4.0140843935449464</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>120</v>
       </c>
       <c r="D7" s="5">
         <f ca="1"/>
-        <v>5.8391036245572687</v>
+        <v>5.8262450703895539</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">D7/SQRT(_xll.MONTE.COUNT())</f>
+        <v>2.4661589530619137E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" cm="1">
         <f t="array" ref="B10:B50">_xll.ARRAY.SEQUENCE(B6,B7,B8)</f>
         <v>80</v>
@@ -2248,7 +2259,7 @@
         <v>3.9914343421845189E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>81</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>5.7008934088089269E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>82</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>8.0058534547881699E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>83</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>0.11061799019469776</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>84</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>0.15048353300942274</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>85</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>0.20168732797265232</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>86</v>
       </c>
@@ -2784,7 +2795,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.140625" style="3"/>
+    <col min="1" max="2" width="10.140625" style="3"/>
+    <col min="3" max="3" width="15.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -2825,7 +2839,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.5572453352715516</v>
+        <v>0.9349693236775326</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -2834,7 +2848,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">r_+σ*SQRT(t)*Z</f>
-        <v>4.5572453352715515E-2</v>
+        <v>3.9349693236775327E-2</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -2842,16 +2856,17 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <f ca="1">EXP(-r_ - s*Z)</f>
-        <v>0.83050233902484949</v>
+        <f ca="1">EXP(-r_ - σ*SQRT(t)*Z)</f>
+        <v>0.96141445022507632</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
+      <c r="C9" s="8" cm="1">
+        <f t="array" ref="C9">_xll.HOLEE.FLOORLET(r_, σ, k, t)</f>
+        <v>3.8715820674223426E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -2869,7 +2884,7 @@
       </c>
       <c r="C11" s="3">
         <f t="array" aca="1" ref="C11:C12" ca="1">_xll.MONTE.STDEV(C10)</f>
-        <v>0</v>
+        <v>3.9065009231608544E-3</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -2878,7 +2893,7 @@
       </c>
       <c r="C12" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.7540120806283982E-3</v>
       </c>
     </row>
   </sheetData>
